--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1522,17 +1522,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.61328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1541,26 +1541,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.44140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.85546875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.59375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ppc-1:Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}completed-consent-code:If category is DS then there must be a ResearchConsentDiseaseAbbreviation {provision.purpose.where(code = 'DS').empty() or provision.extension.where(url='https://nih-ncpi.github.io/ncpi-fhir-ig/StructureDefinition/research-disease-use-limitation').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ppc-1:Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}completed-consent-code:If category is DS then there must be a ResearchConsentDiseaseAbbreviation {provision.purpose.where(code = 'DS').empty() or provision.extension.where(url='https://nih-ncpi.github.io/ncpi-fhir-ig/StructureDefinition/research-disease-use-limitation').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>FinancialConsent</t>
-  </si>
-  <si>
-    <t>infrastructure.information</t>
   </si>
   <si>
     <t>Consent.id</t>
@@ -364,7 +361,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -422,10 +419,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -473,10 +466,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Consent.extension:accessType</t>
   </si>
   <si>
@@ -526,7 +515,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -548,6 +537,12 @@
     <t>This identifier identifies this copy of the consent. Where this identifier is also used elsewhere as the identifier for a consent record (e.g. a CDA consent document) then the consent details are expected to be the same.</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://acme.org/identifier/local/eCMS"/&gt;
+  &lt;value value="Local eCMS identifier"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -578,7 +573,7 @@
     <t>Indicates the state of the consent.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-state-codes|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-state-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -785,10 +780,6 @@
     <t>The references to the policies that are included in this consent scope. Policies may be organizational, but are often defined jurisdictionally, or in law.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Consent.policy.id</t>
   </si>
   <si>
@@ -979,7 +970,7 @@
     <t>How a rule statement is applied, such as adding additional consent or removing consent.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-provision-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-provision-type|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.period</t>
@@ -1186,7 +1177,7 @@
     <t>How a resource reference is interpreted when testing consent restrictions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-data-meaning|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-data-meaning|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.data.reference</t>
@@ -1541,7 +1532,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="47.265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1796,15 +1787,15 @@
         <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1815,28 +1806,28 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1886,13 +1877,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1915,10 +1906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1929,25 +1920,25 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1998,19 +1989,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2027,10 +2018,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2041,28 +2032,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2112,19 +2103,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2141,10 +2132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2155,7 +2146,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2167,16 +2158,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2202,43 +2193,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2255,21 +2246,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2281,16 +2272,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2340,28 +2331,28 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -2369,14 +2360,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2395,16 +2386,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2454,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2466,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -2475,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -2483,10 +2474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2494,7 +2485,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2509,13 +2500,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2554,17 +2545,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2576,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2593,13 +2584,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2609,7 +2600,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2621,13 +2612,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2678,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2687,10 +2678,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2707,23 +2698,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2735,13 +2726,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2792,7 +2783,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2801,10 +2792,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2821,13 +2812,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2837,7 +2828,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2849,13 +2840,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2906,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2915,10 +2906,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -2935,14 +2926,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2955,25 +2946,25 @@
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3022,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3034,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3043,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3051,10 +3042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3074,19 +3065,19 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3100,7 +3091,7 @@
         <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>20</v>
@@ -3136,7 +3127,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3148,27 +3139,27 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3176,34 +3167,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3228,63 +3219,63 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3292,28 +3283,28 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3340,14 +3331,14 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3364,19 +3355,19 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3393,10 +3384,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3404,7 +3395,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3416,16 +3407,16 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3437,29 +3428,29 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3476,10 +3467,10 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
@@ -3488,27 +3479,27 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3519,28 +3510,28 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3590,39 +3581,39 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3633,28 +3624,28 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3704,43 +3695,43 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3756,19 +3747,19 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3818,7 +3809,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3830,31 +3821,31 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3870,16 +3861,16 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3930,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3942,10 +3933,10 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3954,15 +3945,15 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3973,28 +3964,28 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4044,25 +4035,25 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4073,10 +4064,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4099,13 +4090,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4156,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4168,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
@@ -4185,10 +4176,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4199,7 +4190,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4211,13 +4202,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4268,13 +4259,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4289,7 +4280,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4297,14 +4288,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4323,16 +4314,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4382,7 +4373,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4394,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
@@ -4403,7 +4394,7 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4411,14 +4402,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4431,25 +4422,25 @@
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4498,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4510,7 +4501,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -4519,7 +4510,7 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4527,10 +4518,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4541,7 +4532,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4553,13 +4544,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4610,19 +4601,19 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
@@ -4639,10 +4630,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4653,7 +4644,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4665,16 +4656,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4724,19 +4715,19 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
@@ -4753,10 +4744,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4767,31 +4758,31 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4816,13 +4807,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4840,19 +4831,19 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -4869,10 +4860,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4892,16 +4883,16 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4952,7 +4943,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4964,7 +4955,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -4981,10 +4972,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4995,7 +4986,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5007,13 +4998,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5064,13 +5055,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5085,7 +5076,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5093,14 +5084,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5119,16 +5110,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5178,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5190,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5199,7 +5190,7 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5207,14 +5198,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5227,25 +5218,25 @@
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5294,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5306,7 +5297,7 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5315,7 +5306,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -5323,10 +5314,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5334,28 +5325,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5406,19 +5397,19 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5435,10 +5426,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5449,7 +5440,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5461,13 +5452,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5518,19 +5509,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5547,10 +5538,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5561,7 +5552,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5573,13 +5564,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5630,19 +5621,19 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -5659,10 +5650,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5673,25 +5664,25 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5742,19 +5733,19 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -5771,10 +5762,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5785,7 +5776,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5797,13 +5788,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5854,13 +5845,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5875,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -5883,10 +5874,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5909,13 +5900,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5954,17 +5945,17 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5967,7 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -5993,13 +5984,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
@@ -6009,7 +6000,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6021,13 +6012,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6078,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6087,10 +6078,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6107,14 +6098,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6127,25 +6118,25 @@
         <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6194,7 +6185,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6206,7 +6197,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6215,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6223,10 +6214,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6237,25 +6228,25 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6282,13 +6273,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6306,19 +6297,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6335,10 +6326,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6349,25 +6340,25 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6418,19 +6409,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6447,10 +6438,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6473,13 +6464,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6487,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="Q44" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>20</v>
@@ -6532,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6544,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6561,10 +6552,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6575,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6587,13 +6578,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6644,13 +6635,13 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
@@ -6665,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6673,14 +6664,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6699,16 +6690,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6758,7 +6749,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6770,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -6779,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6787,14 +6778,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6807,25 +6798,25 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6874,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6886,7 +6877,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -6895,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -6903,10 +6894,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6914,10 +6905,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6929,13 +6920,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6962,13 +6953,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -6986,19 +6977,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7015,10 +7006,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7026,10 +7017,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7041,13 +7032,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7098,19 +7089,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7127,10 +7118,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7150,54 +7141,54 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="R50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7214,7 +7205,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7226,7 +7217,7 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7243,10 +7234,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7266,19 +7257,19 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7304,13 +7295,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7328,7 +7319,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7331,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7357,10 +7348,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7380,19 +7371,19 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7418,11 +7409,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7440,7 +7431,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7443,7 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7469,10 +7460,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7492,19 +7483,19 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7530,13 +7521,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7554,7 +7545,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7566,7 +7557,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -7583,10 +7574,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7606,19 +7597,19 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7644,13 +7635,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7668,7 +7659,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -7697,10 +7688,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7711,28 +7702,28 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7782,19 +7773,19 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -7811,10 +7802,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7834,16 +7825,16 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7851,7 +7842,7 @@
         <v>20</v>
       </c>
       <c r="Q56" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>20</v>
@@ -7896,7 +7887,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7908,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
@@ -7917,7 +7908,7 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
@@ -7925,10 +7916,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7939,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -7951,13 +7942,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8008,13 +7999,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -8029,7 +8020,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -8037,14 +8028,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8063,16 +8054,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8122,7 +8113,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8134,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8143,7 +8134,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -8151,14 +8142,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8171,25 +8162,25 @@
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8238,7 +8229,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8250,7 +8241,7 @@
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8259,7 +8250,7 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
@@ -8267,10 +8258,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8278,28 +8269,28 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8326,13 +8317,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8350,19 +8341,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8379,10 +8370,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8390,28 +8381,28 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8462,19 +8453,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -8491,10 +8482,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8520,10 +8511,10 @@
         <v>79</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8574,7 +8565,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8586,7 +8577,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
